--- a/DOCUMENTACAO/EDUDW - ETL - MODELAGEM - v1.0.xlsx
+++ b/DOCUMENTACAO/EDUDW - ETL - MODELAGEM - v1.0.xlsx
@@ -5,12 +5,13 @@
   <sheets>
     <sheet state="visible" name="TEMPO_D" sheetId="1" r:id="rId3"/>
     <sheet state="visible" name="MUNICIPIO_D" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="UF_D" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="REGIAO_D" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="AVALIACAO_D" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="MUNICIPIO_F" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="ESCOLA_D" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="ESCOLA_F" sheetId="8" r:id="rId10"/>
+    <sheet state="visible" name="INDICADORES_MUNICIPIO_D" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="UF_D" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="REGIAO_D" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="AVALIACAO_D" sheetId="6" r:id="rId8"/>
+    <sheet state="visible" name="MUNICIPIO_F" sheetId="7" r:id="rId9"/>
+    <sheet state="visible" name="ESCOLA_D" sheetId="8" r:id="rId10"/>
+    <sheet state="visible" name="ESCOLA_F" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -18,134 +19,239 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="400">
   <si>
     <t>ETL EDUDW</t>
   </si>
   <si>
+    <t>Fonte: http://dados.gov.br/</t>
+  </si>
+  <si>
+    <t>Fonte: http://geoftp.ibge.gov.br/</t>
+  </si>
+  <si>
+    <t>COLUNAS</t>
+  </si>
+  <si>
+    <t>JOINS</t>
+  </si>
+  <si>
+    <t>TABELA DESTINO EDUDW</t>
+  </si>
+  <si>
+    <t>ORIGEM (FONTE)</t>
+  </si>
+  <si>
+    <t>Tipo Dado (EDUDW)</t>
+  </si>
+  <si>
+    <t>DESTINO (EDUDW)</t>
+  </si>
+  <si>
+    <t>TABELA (EDUDW)</t>
+  </si>
+  <si>
+    <t>COLUNA (EDUDW)</t>
+  </si>
+  <si>
+    <t>CONDIÇÃO</t>
+  </si>
+  <si>
+    <t>MUNICIPIO_D</t>
+  </si>
+  <si>
+    <t>CODIGO_MUNICIPIO</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>NOME_MUNICIPIO</t>
+  </si>
+  <si>
+    <t>V_String</t>
+  </si>
+  <si>
     <t>Fonte: Logica Feita Manualmente</t>
   </si>
   <si>
-    <t>COLUNAS</t>
-  </si>
-  <si>
-    <t>JOINS</t>
-  </si>
-  <si>
-    <t>TABELA DESTINO EDUDW</t>
-  </si>
-  <si>
-    <t>ORIGEM (FONTE)</t>
-  </si>
-  <si>
-    <t>Tipo Dado (EDUDW)</t>
-  </si>
-  <si>
-    <t>DESTINO (EDUDW)</t>
-  </si>
-  <si>
-    <t>TABELA (EDUDW)</t>
-  </si>
-  <si>
-    <t>COLUNA (EDUDW)</t>
-  </si>
-  <si>
-    <t>CONDIÇÃO</t>
+    <t>INDICADORES_MUNICIPIO_D</t>
+  </si>
+  <si>
+    <t>CODIGO_UF</t>
+  </si>
+  <si>
+    <t>TEMPO_D</t>
+  </si>
+  <si>
+    <t>ID_ANO</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>ANO_STRING</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>NO_ANO</t>
+  </si>
+  <si>
+    <t>COD_MUNICIPIO</t>
+  </si>
+  <si>
+    <t>Int32</t>
+  </si>
+  <si>
+    <t>ESCOLA_F</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>NO_MES</t>
+  </si>
+  <si>
+    <t>NO_DIA</t>
+  </si>
+  <si>
+    <t>COD_MUNICIPIO = COD_MUNICIPIO</t>
+  </si>
+  <si>
+    <t>ANO_INDICADORES</t>
+  </si>
+  <si>
+    <t>Int16</t>
   </si>
   <si>
     <t>UF_D</t>
   </si>
   <si>
-    <t>CODIGO_UF</t>
-  </si>
-  <si>
-    <t>Double</t>
-  </si>
-  <si>
-    <t>MUNICIPIO_D</t>
-  </si>
-  <si>
-    <t>CODIGO_MUNICIPIO</t>
-  </si>
-  <si>
-    <t>TEMPO_D</t>
-  </si>
-  <si>
-    <t>ID_ANO</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>NOME_MUNICIPIO</t>
+    <t>PIB_PER_CAPITA</t>
+  </si>
+  <si>
+    <t>CODIGO_UF = CODIGO_UF</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>PIB</t>
+  </si>
+  <si>
+    <t>Int64</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>QTD_BOLSA_FAMILIA</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>SALARIO_MEDIO_PROFESSOR</t>
+  </si>
+  <si>
+    <t>GEO_LOCALIZACAO</t>
+  </si>
+  <si>
+    <t>SpatialObj</t>
+  </si>
+  <si>
+    <t>QUANTIDADE_PROFESSORES</t>
+  </si>
+  <si>
+    <t>PROFESSORES_COM_CURSO_SUPERIOR</t>
+  </si>
+  <si>
+    <t>SALARIO_MEDIO_PROF_1A4_ANO_PUB</t>
+  </si>
+  <si>
+    <t>SALARIO_MEDIO_PROF_5A8_ANO_PUB</t>
+  </si>
+  <si>
+    <t>QTD_PROFESSOR_1A4_SERIE_PUBLICA</t>
+  </si>
+  <si>
+    <t>QTD_PROFESSOR_5A8_SERIE_PUBLICA</t>
+  </si>
+  <si>
+    <t>TOTAL_TRANSFERENCIAS_RECURSOS</t>
+  </si>
+  <si>
+    <t>TRANSF_EDUCACAO_BASICA</t>
+  </si>
+  <si>
+    <t>TRANSF_ALIMENTACAO_NUTRICAO</t>
+  </si>
+  <si>
+    <t>TRANSF_EDUCACAO_PER_CAPITA</t>
+  </si>
+  <si>
+    <t>TRANSF_EDUCACAO_POR_ALUNO</t>
+  </si>
+  <si>
+    <t>QTD_ALUNOS_REDE_PUBLICA</t>
+  </si>
+  <si>
+    <t>Fonte: http://portal.inep.gov.br/microdados</t>
+  </si>
+  <si>
+    <t>Fonte: Fonte: http://geoftp.ibge.gov.br/</t>
+  </si>
+  <si>
+    <t>AVALIACAO_D</t>
+  </si>
+  <si>
+    <t>COD_AVALIACAO</t>
+  </si>
+  <si>
+    <t>REGIAO_D</t>
+  </si>
+  <si>
+    <t>CODIGO_REGIAO</t>
   </si>
   <si>
     <t>NOME_UF</t>
   </si>
   <si>
-    <t>V_String</t>
+    <t>COD_AVALIACAO = COD_AVALIACAO</t>
+  </si>
+  <si>
+    <t>Byte</t>
   </si>
   <si>
     <t>V_WString</t>
   </si>
   <si>
-    <t>ANO_STRING</t>
-  </si>
-  <si>
-    <t>STRING</t>
-  </si>
-  <si>
-    <t>NO_ANO</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
-    <t>NO_MES</t>
-  </si>
-  <si>
-    <t>NO_DIA</t>
+    <t>DESCRICAO_AVALIACAO</t>
+  </si>
+  <si>
+    <t>NOME_REGIAO</t>
   </si>
   <si>
     <t>SIGLA_UF</t>
   </si>
   <si>
-    <t>CODIGO_REGIAO</t>
-  </si>
-  <si>
-    <t>REGIAO_D</t>
-  </si>
-  <si>
-    <t>CODIGO_UF = CODIGO_UF</t>
+    <t>LATITUDE_REGIAO</t>
   </si>
   <si>
     <t>CODIGO_REGIAO = CODIGO_REGIAO</t>
   </si>
   <si>
+    <t>LONGITUDE_REGIAO</t>
+  </si>
+  <si>
     <t>LONGITUDE_UF</t>
   </si>
   <si>
     <t>LATITUDE_UF</t>
   </si>
   <si>
-    <t>AREA</t>
-  </si>
-  <si>
-    <t>LONGITUDE</t>
-  </si>
-  <si>
-    <t>LATITUDE</t>
-  </si>
-  <si>
-    <t>GEO_LOCALIZACAO</t>
-  </si>
-  <si>
-    <t>SpatialObj</t>
-  </si>
-  <si>
-    <t>Fonte: http://geoftp.ibge.gov.br/</t>
-  </si>
-  <si>
     <t>COLUNA ORIGEM (FONTE)</t>
   </si>
   <si>
@@ -155,36 +261,15 @@
     <t>MUNICIPIO_F</t>
   </si>
   <si>
-    <t>Byte</t>
-  </si>
-  <si>
-    <t>AVALIACAO_D</t>
-  </si>
-  <si>
-    <t>COD_AVALIACAO</t>
-  </si>
-  <si>
-    <t>ESCOLA_F</t>
-  </si>
-  <si>
-    <t>NOME_REGIAO</t>
-  </si>
-  <si>
-    <t>COD_AVALIACAO = COD_AVALIACAO</t>
-  </si>
-  <si>
-    <t>DESCRICAO_AVALIACAO</t>
-  </si>
-  <si>
-    <t>LATITUDE_REGIAO</t>
-  </si>
-  <si>
-    <t>LONGITUDE_REGIAO</t>
-  </si>
-  <si>
     <t>COD_MUN_7</t>
   </si>
   <si>
+    <t>ESCOLA_D</t>
+  </si>
+  <si>
+    <t>COD_ESCOLA</t>
+  </si>
+  <si>
     <t>CODIGO_MUNICIPIO = CODIGO_MUNICIPIO</t>
   </si>
   <si>
@@ -194,126 +279,216 @@
     <t>CODIGO_MUNICIPIO_6</t>
   </si>
   <si>
+    <t>COD_ESCOLA = COD_ESCOLA</t>
+  </si>
+  <si>
     <t>COD_UF</t>
   </si>
   <si>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>DESC_REDE</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>DESC_ESFERA_ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>COD_TIPO_AVALIACAO</t>
+  </si>
+  <si>
     <t>ANO</t>
   </si>
   <si>
-    <t>Int32</t>
+    <t>DESC_CATEGORIA_ESC_PRIVADA</t>
+  </si>
+  <si>
+    <t>COD_TIPO_AVALIACAO = COD_TIPO_AVALIACAO</t>
+  </si>
+  <si>
+    <t>ANO_AVALIACAO</t>
   </si>
   <si>
     <t>ANO = NO_ANO</t>
   </si>
   <si>
+    <t>E_CONVENIADA_PODER_PUBLICO</t>
+  </si>
+  <si>
     <t>IDHM</t>
   </si>
   <si>
     <t>IDH_GERAL</t>
   </si>
   <si>
+    <t>NO_ANO = ANO_AVALIACAO</t>
+  </si>
+  <si>
+    <t>DESC_TIPO_CONVENIO_PODER_PUBL</t>
+  </si>
+  <si>
     <t>IDHM_E</t>
   </si>
   <si>
+    <t>VALOR</t>
+  </si>
+  <si>
     <t>IDH_DIMENSAO_EDUCACAO</t>
   </si>
   <si>
+    <t>FINS_LUCRATIVOS</t>
+  </si>
+  <si>
     <t>I_FREQ_PROP</t>
   </si>
   <si>
     <t>INDICE_FREQUENCIA_ESCOLAR_IDHM</t>
   </si>
   <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
     <t>IDHM_L</t>
   </si>
   <si>
     <t>IDH_DIMENSAO_LONGEVIDADE</t>
   </si>
   <si>
+    <t>DESC_SITUACAO_FUNCIONAMENTO</t>
+  </si>
+  <si>
     <t>IDHM_R</t>
   </si>
   <si>
     <t>IDH_DIMENSAO_RENDA</t>
   </si>
   <si>
+    <t>DESC_RURAL_URBANA</t>
+  </si>
+  <si>
     <t>RDPC</t>
   </si>
   <si>
     <t>RENDA_PER_CAPITA</t>
   </si>
   <si>
+    <t>TELEFONE</t>
+  </si>
+  <si>
     <t>I_ESCOLARIDADE</t>
   </si>
   <si>
     <t>INDICE_ESCOLARIDADE_IDHM</t>
   </si>
   <si>
+    <t>URL_SITE</t>
+  </si>
+  <si>
     <t>T_ANALF15M</t>
   </si>
   <si>
     <t>TAXA_ANALF_MAIORES_15</t>
   </si>
   <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
     <t>T_ANALF18M</t>
   </si>
   <si>
     <t>TAXA_ANALF_MAIORES_18</t>
   </si>
   <si>
+    <t>NUM_ALUNOS</t>
+  </si>
+  <si>
     <t>T_ANALF25M</t>
   </si>
   <si>
     <t>TAXA_ANALF_MAIORES_25</t>
   </si>
   <si>
+    <t>NUM_SALAS_EXISTENTES</t>
+  </si>
+  <si>
     <t>T_ATRASO_2_BASICO</t>
   </si>
   <si>
     <t>PERCENT_ATRASO_ENS_BASICO</t>
   </si>
   <si>
+    <t>NUM_SALAS_UTILIZADAS</t>
+  </si>
+  <si>
     <t>T_ATRASO_2_FUND</t>
   </si>
   <si>
     <t>PERCENT_ATRASO_ENS_FUNDAMENTAL</t>
   </si>
   <si>
+    <t>NUM_FUNCIONARIOS</t>
+  </si>
+  <si>
     <t>T_FLBAS</t>
   </si>
   <si>
     <t>TAXA_FREQUENCIA_ENS_BASICO</t>
   </si>
   <si>
+    <t>NUM_COMPUTADORES</t>
+  </si>
+  <si>
     <t>T_FLFUND</t>
   </si>
   <si>
     <t>TAXA_FREQUENCIA_ENS_FUNDAMENTAL</t>
   </si>
   <si>
+    <t>NUM_COMPUTADORES_ALUNOS</t>
+  </si>
+  <si>
     <t>T_FLMED</t>
   </si>
   <si>
     <t>TAXA_FREQUENCIA_ENS_MEDIO</t>
   </si>
   <si>
+    <t>QUADRA_ESPORTE_COBERTA</t>
+  </si>
+  <si>
     <t>T_FLSUPER</t>
   </si>
   <si>
     <t>TAXA_FREQUENCIA_ENS_SUPERIOR</t>
   </si>
   <si>
+    <t>QUADRA_ESPORTE_DESCOBERTA</t>
+  </si>
+  <si>
     <t>T_FREQ15A17</t>
   </si>
   <si>
     <t>PERCENT_FREQUENCIA_15_17_ANOS</t>
   </si>
   <si>
+    <t>INTERNET</t>
+  </si>
+  <si>
     <t>T_FREQ18A24</t>
   </si>
   <si>
+    <t>BANDA_LARGA</t>
+  </si>
+  <si>
     <t>PERCENT_FREQUENCIA_18_24_ANOS</t>
   </si>
   <si>
+    <t>LABORATORIO_INFORMATICA</t>
+  </si>
+  <si>
     <t>T_FREQ5A6</t>
   </si>
   <si>
@@ -323,57 +498,93 @@
     <t>T_FREQ6A14</t>
   </si>
   <si>
+    <t>LABORATORIO_CIENCIAS</t>
+  </si>
+  <si>
     <t>PERCENT_FREQUENCIA_6_14_ANOS</t>
   </si>
   <si>
+    <t>REFEITORIO</t>
+  </si>
+  <si>
     <t>T_FUND11A13</t>
   </si>
   <si>
     <t>PERCENT_FUND_COMPLETO_11_13_ANOS</t>
   </si>
   <si>
+    <t>AUDITORIO</t>
+  </si>
+  <si>
     <t>T_FUND15A17</t>
   </si>
   <si>
     <t>PERCENT_FUND_COMPLETO_15_17_ANOS</t>
   </si>
   <si>
+    <t>DESPENSA</t>
+  </si>
+  <si>
     <t>T_FUND18A24</t>
   </si>
   <si>
     <t>PERCENT_FUND_COMPLETO_18_24_ANOS</t>
   </si>
   <si>
+    <t>ALMOXARIFADO</t>
+  </si>
+  <si>
     <t>T_FUND18M</t>
   </si>
   <si>
     <t>PERCENT_FUND_COMPLETO_MAIOR_18</t>
   </si>
   <si>
+    <t>PATIO_COBERTO</t>
+  </si>
+  <si>
     <t>T_FUND25M</t>
   </si>
   <si>
     <t>PERCENT_FUND_COMPLETO_MAIOR_25</t>
   </si>
   <si>
+    <t>PATIO_DESCOBERTO</t>
+  </si>
+  <si>
+    <t>PARQUE_INFANTIL</t>
+  </si>
+  <si>
     <t>T_MED18A20</t>
   </si>
   <si>
+    <t>COZINHA</t>
+  </si>
+  <si>
     <t>PERCENT_MEDIO_COMPLETO_18_20_ANOS</t>
   </si>
   <si>
+    <t>BIBLIOTECA</t>
+  </si>
+  <si>
     <t>T_MED25M</t>
   </si>
   <si>
     <t>PERCENT_MEDIO_COMPLETO_MAIOR_25</t>
   </si>
   <si>
+    <t>BERCARIO</t>
+  </si>
+  <si>
     <t>T_SUPER25M</t>
   </si>
   <si>
     <t>PERCENT_SUP_COMPLETO_MAIOR_25</t>
   </si>
   <si>
+    <t>SANITARIO_DENTRO_PREDIO</t>
+  </si>
+  <si>
     <t>PPOB</t>
   </si>
   <si>
@@ -383,111 +594,171 @@
     <t>PRENTRAB</t>
   </si>
   <si>
+    <t>SANITARIO_FORA_PREDIO</t>
+  </si>
+  <si>
     <t>PERCENT_RENDA_TRABALHO</t>
   </si>
   <si>
+    <t>BANHEIRO_CHUVEIRO</t>
+  </si>
+  <si>
     <t>R1040</t>
   </si>
   <si>
     <t>RAZAO_10_RICOS_40_POBRES</t>
   </si>
   <si>
+    <t>SALA_LEITURA</t>
+  </si>
+  <si>
     <t>R2040</t>
   </si>
   <si>
     <t>RAZAO_20_RICOS_40_POBRES</t>
   </si>
   <si>
+    <t>AREA_VERDE</t>
+  </si>
+  <si>
     <t>RDPC1</t>
   </si>
   <si>
     <t>RENDA_PER_CAPITA_1QUINTO_POBRE</t>
   </si>
   <si>
+    <t>ALIMENTACAO</t>
+  </si>
+  <si>
     <t>RDPC2</t>
   </si>
   <si>
+    <t>AGUA_FILTRADA</t>
+  </si>
+  <si>
     <t>RENDA_PER_CAPITA_2QUINTO_POBRE</t>
   </si>
   <si>
     <t>RDPC3</t>
   </si>
   <si>
+    <t>DEPENDENCIAS_ADEQ_DEFICIENTES</t>
+  </si>
+  <si>
     <t>RENDA_PER_CAPITA_3QUINTO_POBRE</t>
   </si>
   <si>
     <t>RDPC4</t>
   </si>
   <si>
+    <t>ATEND_EDUCIONAL_ESPECIALIZADO</t>
+  </si>
+  <si>
     <t>RENDA_PER_CAPITA_4QUINTO_POBRE</t>
   </si>
   <si>
+    <t>CRECHE</t>
+  </si>
+  <si>
     <t>RDPC5</t>
   </si>
   <si>
     <t>RENDA_PER_CAPITA_5QUINTO_RICOS</t>
   </si>
   <si>
+    <t>FUNDAMENTAL</t>
+  </si>
+  <si>
     <t>RDPC10</t>
   </si>
   <si>
     <t>RENDA_PER_CAPITA_DECIMO_RICOS</t>
   </si>
   <si>
+    <t>MEDIO</t>
+  </si>
+  <si>
     <t>RDPCT</t>
   </si>
   <si>
     <t>RENDA_PER_CAPITA_MENOS_NULO</t>
   </si>
   <si>
+    <t>MEDIO_NORMAL</t>
+  </si>
+  <si>
     <t>RIND</t>
   </si>
   <si>
     <t>RENDA_PER_CAPITA_EXT_POBRES</t>
   </si>
   <si>
+    <t>MEDIO_PROFISSIONAL</t>
+  </si>
+  <si>
     <t>RMPOB</t>
   </si>
   <si>
     <t>RENDA_PER_CAPITA_POBRES</t>
   </si>
   <si>
+    <t>MEDIO_INTEGRADO</t>
+  </si>
+  <si>
     <t>RPOB</t>
   </si>
   <si>
     <t>RENDA_PER_CAPITA_VULN_POBRES</t>
   </si>
   <si>
+    <t>EDUCACAO_JOVENS_ADULTOS</t>
+  </si>
+  <si>
     <t>THEIL</t>
   </si>
   <si>
     <t>INDICE_THEIL_L</t>
   </si>
   <si>
+    <t>EDUCACAO_INDIGENA</t>
+  </si>
+  <si>
     <t>FECTOT</t>
   </si>
   <si>
     <t>TAXA_FECUNDIDADE_TOTAL</t>
   </si>
   <si>
+    <t>ENDERECO</t>
+  </si>
+  <si>
     <t>T_ANALF11A14</t>
   </si>
   <si>
     <t>TAXA_ANALF_11_A_14_ANOS</t>
   </si>
   <si>
+    <t>BAIRRO</t>
+  </si>
+  <si>
     <t>T_ANALF15A17</t>
   </si>
   <si>
     <t>TAXA_ANALF_15_A_17_ANOS</t>
   </si>
   <si>
+    <t>CEP</t>
+  </si>
+  <si>
     <t>T_ANALF18A24</t>
   </si>
   <si>
     <t>TAXA_ANALF_18_A_24_ANOS</t>
   </si>
   <si>
+    <t>LOCALIZACAO_VERIFICADA</t>
+  </si>
+  <si>
     <t>T_ANALF25A29</t>
   </si>
   <si>
@@ -719,9 +990,6 @@
     <t>POP</t>
   </si>
   <si>
-    <t>Int64</t>
-  </si>
-  <si>
     <t>POP_TOTAL_DOMICILIOS</t>
   </si>
   <si>
@@ -833,69 +1101,36 @@
     <t>PERCENT_POPULAC_ENERGIA_ELETRICA</t>
   </si>
   <si>
-    <t>COD_ESCOLA</t>
-  </si>
-  <si>
     <t>AGUA_ESGOTO</t>
   </si>
   <si>
     <t>PERCENT_POPULAC_AGUA_ESGOTO</t>
   </si>
   <si>
-    <t>ESCOLA_D</t>
-  </si>
-  <si>
-    <t>COD_ESCOLA = COD_ESCOLA</t>
-  </si>
-  <si>
     <t>T_CRIFUNDIN_TODOS</t>
   </si>
   <si>
     <t>DOMICILIOS_CRIANCAS_SEM_FUNDAMENTAL</t>
   </si>
   <si>
-    <t>COD_MUNICIPIO</t>
-  </si>
-  <si>
-    <t>COD_MUNICIPIO = COD_MUNICIPIO</t>
-  </si>
-  <si>
     <t>T_FORA4A5</t>
   </si>
   <si>
-    <t>COD_TIPO_AVALIACAO</t>
-  </si>
-  <si>
     <t>CRIANCAS_FORA_ESCOLA_4_A_5_ANOS</t>
   </si>
   <si>
-    <t>COD_TIPO_AVALIACAO = COD_TIPO_AVALIACAO</t>
-  </si>
-  <si>
-    <t>ANO_AVALIACAO</t>
-  </si>
-  <si>
     <t>T_FORA6A14</t>
   </si>
   <si>
-    <t>NO_ANO = ANO_AVALIACAO</t>
-  </si>
-  <si>
     <t>CRIANCAS_FORA_ESCOLA_6_A_14_ANOS</t>
   </si>
   <si>
-    <t>VALOR</t>
-  </si>
-  <si>
     <t>T_FUNDIN_TODOS</t>
   </si>
   <si>
     <t>DOMICILIO_NINGUEM_COM_FUNDAMENTAL</t>
   </si>
   <si>
-    <t>NOME</t>
-  </si>
-  <si>
     <t>T_NESTUDA_NTRAB_MMEIO</t>
   </si>
   <si>
@@ -908,48 +1143,30 @@
     <t>PERCENT_DOMICILIOS_SEM_LUZ_ELETRICA</t>
   </si>
   <si>
-    <t>DESC_REDE</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
     <t>HOMEMTOT</t>
   </si>
   <si>
     <t>TOTAL_POPULACAO_MASCULINA</t>
   </si>
   <si>
-    <t>DESC_ESFERA_ADMINISTRATIVA</t>
-  </si>
-  <si>
     <t>MULHERTOT</t>
   </si>
   <si>
     <t>TOTAL_POPULACAO_FEMININA</t>
   </si>
   <si>
-    <t>DESC_CATEGORIA_ESC_PRIVADA</t>
-  </si>
-  <si>
     <t>PEA</t>
   </si>
   <si>
     <t>POP_ECONOM_ATIVA_MAIS_10</t>
   </si>
   <si>
-    <t>E_CONVENIADA_PODER_PUBLICO</t>
-  </si>
-  <si>
     <t>PEA1014</t>
   </si>
   <si>
     <t>POP_ECONOM_ATIVA_10_A_14</t>
   </si>
   <si>
-    <t>DESC_TIPO_CONVENIO_PODER_PUBL</t>
-  </si>
-  <si>
     <t>PEA1517</t>
   </si>
   <si>
@@ -959,27 +1176,18 @@
     <t>PEA18M</t>
   </si>
   <si>
-    <t>FINS_LUCRATIVOS</t>
-  </si>
-  <si>
     <t>POP_ECONOM_ATIVA_18_MAIS</t>
   </si>
   <si>
     <t>pesoRUR</t>
   </si>
   <si>
-    <t>CNPJ</t>
-  </si>
-  <si>
     <t>POPULACAO_RURAL</t>
   </si>
   <si>
     <t>pesourb</t>
   </si>
   <si>
-    <t>DESC_SITUACAO_FUNCIONAMENTO</t>
-  </si>
-  <si>
     <t>POPULACAO_URBANA</t>
   </si>
   <si>
@@ -989,179 +1197,35 @@
     <t>POPULACAO_10_MAIS_ANOS</t>
   </si>
   <si>
-    <t>DESC_RURAL_URBANA</t>
-  </si>
-  <si>
     <t>PIA1014</t>
   </si>
   <si>
     <t>POPULACAO_10_14_ANOS</t>
   </si>
   <si>
-    <t>TELEFONE</t>
-  </si>
-  <si>
     <t>PIA1517</t>
   </si>
   <si>
     <t>POPULACAO_15_17_ANOS</t>
   </si>
   <si>
-    <t>URL_SITE</t>
-  </si>
-  <si>
     <t>PIA18M</t>
   </si>
   <si>
     <t>POPULACAO_18_MAIS_ANOS</t>
   </si>
   <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
     <t>pesotot</t>
   </si>
   <si>
     <t>POPULACAO_TOTAL</t>
-  </si>
-  <si>
-    <t>NUM_ALUNOS</t>
-  </si>
-  <si>
-    <t>NUM_SALAS_EXISTENTES</t>
-  </si>
-  <si>
-    <t>Int16</t>
-  </si>
-  <si>
-    <t>NUM_SALAS_UTILIZADAS</t>
-  </si>
-  <si>
-    <t>NUM_FUNCIONARIOS</t>
-  </si>
-  <si>
-    <t>NUM_COMPUTADORES</t>
-  </si>
-  <si>
-    <t>NUM_COMPUTADORES_ALUNOS</t>
-  </si>
-  <si>
-    <t>QUADRA_ESPORTE_COBERTA</t>
-  </si>
-  <si>
-    <t>QUADRA_ESPORTE_DESCOBERTA</t>
-  </si>
-  <si>
-    <t>INTERNET</t>
-  </si>
-  <si>
-    <t>BANDA_LARGA</t>
-  </si>
-  <si>
-    <t>LABORATORIO_INFORMATICA</t>
-  </si>
-  <si>
-    <t>LABORATORIO_CIENCIAS</t>
-  </si>
-  <si>
-    <t>REFEITORIO</t>
-  </si>
-  <si>
-    <t>AUDITORIO</t>
-  </si>
-  <si>
-    <t>DESPENSA</t>
-  </si>
-  <si>
-    <t>ALMOXARIFADO</t>
-  </si>
-  <si>
-    <t>PATIO_COBERTO</t>
-  </si>
-  <si>
-    <t>PATIO_DESCOBERTO</t>
-  </si>
-  <si>
-    <t>PARQUE_INFANTIL</t>
-  </si>
-  <si>
-    <t>COZINHA</t>
-  </si>
-  <si>
-    <t>BIBLIOTECA</t>
-  </si>
-  <si>
-    <t>BERCARIO</t>
-  </si>
-  <si>
-    <t>SANITARIO_DENTRO_PREDIO</t>
-  </si>
-  <si>
-    <t>SANITARIO_FORA_PREDIO</t>
-  </si>
-  <si>
-    <t>BANHEIRO_CHUVEIRO</t>
-  </si>
-  <si>
-    <t>SALA_LEITURA</t>
-  </si>
-  <si>
-    <t>AREA_VERDE</t>
-  </si>
-  <si>
-    <t>ALIMENTACAO</t>
-  </si>
-  <si>
-    <t>AGUA_FILTRADA</t>
-  </si>
-  <si>
-    <t>DEPENDENCIAS_ADEQ_DEFICIENTES</t>
-  </si>
-  <si>
-    <t>ATEND_EDUCIONAL_ESPECIALIZADO</t>
-  </si>
-  <si>
-    <t>CRECHE</t>
-  </si>
-  <si>
-    <t>FUNDAMENTAL</t>
-  </si>
-  <si>
-    <t>MEDIO</t>
-  </si>
-  <si>
-    <t>MEDIO_NORMAL</t>
-  </si>
-  <si>
-    <t>MEDIO_PROFISSIONAL</t>
-  </si>
-  <si>
-    <t>MEDIO_INTEGRADO</t>
-  </si>
-  <si>
-    <t>EDUCACAO_JOVENS_ADULTOS</t>
-  </si>
-  <si>
-    <t>EDUCACAO_INDIGENA</t>
-  </si>
-  <si>
-    <t>ENDERECO</t>
-  </si>
-  <si>
-    <t>BAIRRO</t>
-  </si>
-  <si>
-    <t>CEP</t>
-  </si>
-  <si>
-    <t>LOCALIZACAO_VERIFICADA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1178,9 +1242,14 @@
       <sz val="10.0"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF222222"/>
+      <name val="Roboto"/>
+    </font>
     <font/>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1199,6 +1268,12 @@
         <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -1206,7 +1281,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1229,13 +1304,16 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1278,6 +1356,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -1306,58 +1388,58 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>23</v>
@@ -1372,46 +1454,46 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" s="7"/>
     </row>
@@ -1895,149 +1977,149 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -2492,12 +2574,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.86"/>
+    <col customWidth="1" min="1" max="1" width="30.57"/>
     <col customWidth="1" min="2" max="2" width="46.43"/>
     <col customWidth="1" min="3" max="3" width="19.0"/>
     <col customWidth="1" min="4" max="4" width="48.0"/>
-    <col customWidth="1" min="5" max="6" width="17.86"/>
-    <col customWidth="1" min="7" max="7" width="40.14"/>
+    <col customWidth="1" min="5" max="5" width="17.86"/>
+    <col customWidth="1" min="6" max="6" width="21.86"/>
+    <col customWidth="1" min="7" max="7" width="44.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2512,509 +2595,611 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
+      <c r="A5" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
+      <c r="A6" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>29</v>
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
+      <c r="A8" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
+      <c r="A9" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
+      <c r="A10" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="E14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="E18" s="7"/>
     </row>
     <row r="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="E19" s="7"/>
     </row>
     <row r="20">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="E20" s="7"/>
     </row>
     <row r="21">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="E21" s="7"/>
     </row>
     <row r="22">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="E22" s="7"/>
     </row>
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="7"/>
     </row>
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="7"/>
     </row>
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="7"/>
     </row>
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="7"/>
     </row>
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="7"/>
     </row>
     <row r="29">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="7"/>
     </row>
     <row r="30">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="7"/>
     </row>
     <row r="31">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="7"/>
     </row>
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="7"/>
     </row>
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="7"/>
     </row>
     <row r="34">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="7"/>
     </row>
     <row r="35">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="7"/>
     </row>
     <row r="37">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="7"/>
     </row>
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="7"/>
     </row>
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="7"/>
     </row>
     <row r="41">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="7"/>
     </row>
     <row r="42">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="7"/>
     </row>
     <row r="43">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="7"/>
     </row>
     <row r="44">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="7"/>
     </row>
     <row r="45">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="7"/>
     </row>
     <row r="46">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="7"/>
     </row>
     <row r="47">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="7"/>
     </row>
     <row r="48">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="7"/>
     </row>
     <row r="49">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="7"/>
     </row>
     <row r="50">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="7"/>
     </row>
     <row r="51">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="7"/>
     </row>
     <row r="52">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="7"/>
     </row>
     <row r="53">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="7"/>
     </row>
     <row r="54">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="7"/>
     </row>
     <row r="55">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="7"/>
     </row>
     <row r="56">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="7"/>
     </row>
     <row r="57">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="7"/>
     </row>
     <row r="58">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="7"/>
     </row>
     <row r="59">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="D59" s="5"/>
       <c r="E59" s="7"/>
     </row>
     <row r="60">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="D60" s="5"/>
       <c r="E60" s="7"/>
     </row>
     <row r="61">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="5"/>
       <c r="E61" s="7"/>
     </row>
     <row r="62">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
+      <c r="D62" s="5"/>
       <c r="E62" s="7"/>
     </row>
     <row r="63">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
+      <c r="D63" s="5"/>
       <c r="E63" s="7"/>
     </row>
     <row r="64">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="D64" s="5"/>
       <c r="E64" s="7"/>
     </row>
     <row r="65">
@@ -3112,113 +3297,136 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>52</v>
+        <v>35</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>52</v>
+        <v>68</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11">
@@ -3694,91 +3902,98 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
+        <v>64</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
     </row>
@@ -4258,9 +4473,8 @@
     <col customWidth="1" min="2" max="2" width="46.43"/>
     <col customWidth="1" min="3" max="3" width="19.0"/>
     <col customWidth="1" min="4" max="4" width="48.0"/>
-    <col customWidth="1" min="5" max="5" width="17.86"/>
-    <col customWidth="1" min="6" max="6" width="19.57"/>
-    <col customWidth="1" min="7" max="7" width="40.0"/>
+    <col customWidth="1" min="5" max="6" width="17.86"/>
+    <col customWidth="1" min="7" max="7" width="40.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4270,1858 +4484,541 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>55</v>
+      <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17">
-      <c r="A17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>83</v>
-      </c>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>97</v>
-      </c>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>99</v>
-      </c>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>101</v>
-      </c>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>105</v>
-      </c>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>107</v>
-      </c>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>109</v>
-      </c>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>111</v>
-      </c>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34">
-      <c r="A34" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35">
-      <c r="A35" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36">
-      <c r="A36" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>117</v>
-      </c>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37">
-      <c r="A37" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>119</v>
-      </c>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38">
-      <c r="A38" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>121</v>
-      </c>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39">
-      <c r="A39" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>123</v>
-      </c>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40">
-      <c r="A40" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>125</v>
-      </c>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41">
-      <c r="A41" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>127</v>
-      </c>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42">
-      <c r="A42" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>129</v>
-      </c>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
     </row>
     <row r="43">
-      <c r="A43" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>131</v>
-      </c>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44">
-      <c r="A44" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>133</v>
-      </c>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45">
-      <c r="A45" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>135</v>
-      </c>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46">
-      <c r="A46" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>137</v>
-      </c>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
     </row>
     <row r="47">
-      <c r="A47" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>139</v>
-      </c>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48">
-      <c r="A48" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>141</v>
-      </c>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
     </row>
     <row r="49">
-      <c r="A49" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>143</v>
-      </c>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50">
-      <c r="A50" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>145</v>
-      </c>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
     </row>
     <row r="51">
-      <c r="A51" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>147</v>
-      </c>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52">
-      <c r="A52" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>149</v>
-      </c>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
     </row>
     <row r="53">
-      <c r="A53" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>151</v>
-      </c>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54">
-      <c r="A54" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>153</v>
-      </c>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
     </row>
     <row r="55">
-      <c r="A55" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>155</v>
-      </c>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56">
-      <c r="A56" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>157</v>
-      </c>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
     </row>
     <row r="57">
-      <c r="A57" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>159</v>
-      </c>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58">
-      <c r="A58" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>161</v>
-      </c>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
     </row>
     <row r="59">
-      <c r="A59" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>163</v>
-      </c>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
     </row>
     <row r="60">
-      <c r="A60" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
     </row>
     <row r="61">
-      <c r="A61" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7"/>
     </row>
     <row r="62">
-      <c r="A62" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>169</v>
-      </c>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
     </row>
     <row r="63">
-      <c r="A63" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>171</v>
-      </c>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="7"/>
     </row>
     <row r="64">
-      <c r="A64" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>173</v>
-      </c>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="7"/>
     </row>
     <row r="65">
-      <c r="A65" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>175</v>
-      </c>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="7"/>
     </row>
     <row r="66">
-      <c r="A66" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>177</v>
-      </c>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
     </row>
     <row r="67">
-      <c r="A67" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>179</v>
-      </c>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7"/>
     </row>
     <row r="68">
-      <c r="A68" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>181</v>
-      </c>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="7"/>
     </row>
     <row r="69">
-      <c r="A69" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>183</v>
-      </c>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7"/>
     </row>
     <row r="70">
-      <c r="A70" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>185</v>
-      </c>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="7"/>
     </row>
     <row r="71">
-      <c r="A71" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>187</v>
-      </c>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="7"/>
     </row>
     <row r="72">
-      <c r="A72" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>334</v>
-      </c>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6151,8 +5048,9 @@
     <col customWidth="1" min="2" max="2" width="46.43"/>
     <col customWidth="1" min="3" max="3" width="19.0"/>
     <col customWidth="1" min="4" max="4" width="48.0"/>
-    <col customWidth="1" min="5" max="6" width="17.86"/>
-    <col customWidth="1" min="7" max="7" width="40.14"/>
+    <col customWidth="1" min="5" max="5" width="17.86"/>
+    <col customWidth="1" min="6" max="6" width="19.57"/>
+    <col customWidth="1" min="7" max="7" width="40.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6162,1013 +5060,1858 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="C70" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="71">
+      <c r="A71" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="C72" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="10" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    <row r="73">
+      <c r="A73" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    </row>
+    <row r="79">
+      <c r="A79" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C81" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    </row>
+    <row r="82">
+      <c r="A82" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C83" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    </row>
+    <row r="85">
+      <c r="A85" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C86" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B13" s="5" t="s">
+    </row>
+    <row r="88">
+      <c r="A88" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B14" s="5" t="s">
+    </row>
+    <row r="90">
+      <c r="A90" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="C91" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B16" s="5" t="s">
+    </row>
+    <row r="93">
+      <c r="A93" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B17" s="5" t="s">
+    </row>
+    <row r="95">
+      <c r="A95" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="C96" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    </row>
+    <row r="98">
+      <c r="A98" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="C99" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B21" s="5" t="s">
+    </row>
+    <row r="101">
+      <c r="A101" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C101" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    </row>
+    <row r="102">
+      <c r="A102" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="C102" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B24" s="5" t="s">
+    </row>
+    <row r="103">
+      <c r="A103" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="C103" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B26" s="5" t="s">
+    </row>
+    <row r="104">
+      <c r="A104" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B104" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="C104" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B28" s="5" t="s">
+    </row>
+    <row r="105">
+      <c r="A105" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="C105" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B30" s="5" t="s">
+    </row>
+    <row r="106">
+      <c r="A106" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="C106" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B32" s="5" t="s">
+    </row>
+    <row r="107">
+      <c r="A107" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="C107" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B34" s="5" t="s">
+    </row>
+    <row r="108">
+      <c r="A108" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="C108" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B36" s="5" t="s">
+    </row>
+    <row r="109">
+      <c r="A109" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="C109" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B38" s="5" t="s">
+    </row>
+    <row r="110">
+      <c r="A110" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B39" s="5" t="s">
+      <c r="C110" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B40" s="5" t="s">
+    </row>
+    <row r="111">
+      <c r="A111" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B111" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="C111" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B42" s="5" t="s">
+    </row>
+    <row r="112">
+      <c r="A112" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="C112" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B44" s="5" t="s">
+    </row>
+    <row r="113">
+      <c r="A113" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B45" s="5" t="s">
+      <c r="C113" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B46" s="5" t="s">
+    </row>
+    <row r="114">
+      <c r="A114" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B47" s="5" t="s">
+      <c r="C114" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B48" s="5" t="s">
+    </row>
+    <row r="115">
+      <c r="A115" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B49" s="5" t="s">
+      <c r="C115" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B50" s="5" t="s">
+    </row>
+    <row r="116">
+      <c r="A116" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B51" s="5" t="s">
+      <c r="C116" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B52" s="5" t="s">
+    </row>
+    <row r="117">
+      <c r="A117" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B53" s="5" t="s">
+      <c r="C117" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B54" s="5" t="s">
+    </row>
+    <row r="118">
+      <c r="A118" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B55" s="5" t="s">
+      <c r="C118" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B56" s="5" t="s">
+    </row>
+    <row r="119">
+      <c r="A119" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="C119" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B58" s="5" t="s">
+    </row>
+    <row r="120">
+      <c r="A120" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B120" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B59" s="5" t="s">
+      <c r="C120" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B60" s="5" t="s">
+    </row>
+    <row r="121">
+      <c r="A121" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B61" s="5" t="s">
+      <c r="C121" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B62" s="5" t="s">
+    </row>
+    <row r="122">
+      <c r="A122" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B122" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E63" s="7"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="7"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="7"/>
+      <c r="C122" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>399</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7198,6 +6941,1053 @@
     <col customWidth="1" min="2" max="2" width="46.43"/>
     <col customWidth="1" min="3" max="3" width="19.0"/>
     <col customWidth="1" min="4" max="4" width="48.0"/>
+    <col customWidth="1" min="5" max="6" width="17.86"/>
+    <col customWidth="1" min="7" max="7" width="40.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4.0" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B6" sqref="B6" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="24.86"/>
+    <col customWidth="1" min="2" max="2" width="46.43"/>
+    <col customWidth="1" min="3" max="3" width="19.0"/>
+    <col customWidth="1" min="4" max="4" width="48.0"/>
     <col customWidth="1" min="5" max="5" width="17.86"/>
     <col customWidth="1" min="6" max="6" width="21.86"/>
     <col customWidth="1" min="7" max="7" width="44.86"/>
@@ -7210,144 +8000,144 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>274</v>
+        <v>82</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>275</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>278</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>278</v>
+        <v>26</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>278</v>
+        <v>26</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>279</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>281</v>
+        <v>28</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>281</v>
+        <v>27</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>283</v>
+        <v>61</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>284</v>
+        <v>96</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>284</v>
+        <v>96</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>286</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>288</v>
+        <v>104</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>288</v>
+        <v>104</v>
       </c>
       <c r="E9" s="6"/>
     </row>
